--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -464,95 +464,85 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Restoran A</t>
-        </is>
+      <c r="B2" t="n">
+        <v>86</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>29811</v>
       </c>
       <c r="E2" t="n">
-        <v>7.983950617283951</v>
+        <v>79.83950617283951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Restoran D</t>
-        </is>
+      <c r="B3" t="n">
+        <v>78</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>27315</v>
       </c>
       <c r="E3" t="n">
-        <v>7.765934065934067</v>
+        <v>79.83950617283951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Restoran G</t>
-        </is>
+      <c r="B4" t="n">
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>7.5</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5</v>
+        <v>41986</v>
       </c>
       <c r="E4" t="n">
-        <v>7.391275167785236</v>
+        <v>79.55891155705883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Restoran H</t>
-        </is>
+      <c r="B5" t="n">
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>27703</v>
       </c>
       <c r="E5" t="n">
-        <v>6.768702290076337</v>
+        <v>79.2868965517241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Restoran B</t>
-        </is>
+      <c r="B6" t="n">
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>41118</v>
       </c>
       <c r="E6" t="n">
-        <v>6.037962962962965</v>
+        <v>79.06970333420837</v>
       </c>
     </row>
   </sheetData>

--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nama</t>
+          <t>id Pelanggan</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Kualitas</t>
+          <t>Pelayanan</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Harga</t>
+          <t>harga</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
